--- a/Test Data/TC_65369_Verify_Volt_Drop_And_Volt_Drop_Worst_Case_For_Other_Loops_FC.xlsx
+++ b/Test Data/TC_65369_Verify_Volt_Drop_And_Volt_Drop_Worst_Case_For_Other_Loops_FC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20247B98-7163-4A0D-821E-BDF959732671}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA54E89A-79CF-409E-88CF-968B1102F102}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>430LPASB - 1,430LPASB - 2</t>
+  </si>
+  <si>
+    <t>Volt Drop (V)</t>
+  </si>
+  <si>
+    <t>Volt Drop (worst case)</t>
+  </si>
+  <si>
+    <t>Volt drop loading detail name</t>
+  </si>
+  <si>
+    <t>Volt drop worst case loading detail name</t>
   </si>
 </sst>
 </file>
@@ -224,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -233,10 +245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,10 +261,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,93 +601,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="11"/>
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -694,11 +715,17 @@
       <c r="E6" s="1">
         <v>277</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>0.74</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -717,11 +744,17 @@
       <c r="E7" s="1">
         <v>290</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>29</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -737,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F314061-75BE-4623-93F7-3EBA86CADE07}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,90 +787,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="11"/>
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -856,11 +901,17 @@
       <c r="E6" s="1">
         <v>277</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>0.74</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_65369_Verify_Volt_Drop_And_Volt_Drop_Worst_Case_For_Other_Loops_FC.xlsx
+++ b/Test Data/TC_65369_Verify_Volt_Drop_And_Volt_Drop_Worst_Case_For_Other_Loops_FC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA54E89A-79CF-409E-88CF-968B1102F102}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD439738-FF37-4C09-B34C-4A06348D97A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -100,27 +100,18 @@
     <t>verifyVoltageDropCalculation</t>
   </si>
   <si>
-    <t>NGC -1854/TC-65369</t>
-  </si>
-  <si>
     <t>410LPBS LP</t>
   </si>
   <si>
     <t>410LPBS LP - 1,410LPBS LP - 2</t>
   </si>
   <si>
-    <t>0.40</t>
-  </si>
-  <si>
     <t>460PH</t>
   </si>
   <si>
     <t>460PH - 3</t>
   </si>
   <si>
-    <t>0.48</t>
-  </si>
-  <si>
     <t>0.90</t>
   </si>
   <si>
@@ -140,6 +131,30 @@
   </si>
   <si>
     <t>Volt drop worst case loading detail name</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>NGC-1854/T773 OR TC-65369</t>
   </si>
 </sst>
 </file>
@@ -170,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -251,7 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -262,12 +282,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,16 +620,17 @@
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
       <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
@@ -615,27 +638,33 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -643,118 +672,124 @@
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>32</v>
+      <c r="E3" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
+      <c r="J3" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>33</v>
+      <c r="E4" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>34</v>
+      <c r="H5" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>277</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>290</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>33</v>
+      <c r="I7" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -768,10 +803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F314061-75BE-4623-93F7-3EBA86CADE07}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,16 +819,17 @@
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
       <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
@@ -801,27 +837,33 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -829,89 +871,95 @@
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>32</v>
+      <c r="E3" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
+      <c r="J3" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>33</v>
+      <c r="E4" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="J4" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>277</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>25</v>
+        <v>267</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.34</v>
       </c>
       <c r="G6" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>33</v>
+        <v>0.63</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
